--- a/data/EX2350, 2351, 2352, 2388 - TU AAV8 Quali Data Collation for Dragos (data re-formatted).xlsx
+++ b/data/EX2350, 2351, 2352, 2388 - TU AAV8 Quali Data Collation for Dragos (data re-formatted).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahunt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23522CD9-7550-4AE4-BED6-24A38108FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9969367C-B63A-4F04-B948-5F37F80B5EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{70ACE23A-D533-44C6-8EB6-FDAF158EC076}"/>
   </bookViews>
@@ -644,12 +644,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF93C08-9E05-4B70-A42B-8E734630E724}">
   <dimension ref="A1:Q396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="G378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J210" sqref="J210:L221"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -663,7 +664,7 @@
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8116,6 +8117,18 @@
       <c r="I197" s="3">
         <v>8170000</v>
       </c>
+      <c r="J197">
+        <f t="shared" ref="J197:J208" si="44">H197/100</f>
+        <v>0.81700000000000006</v>
+      </c>
+      <c r="K197">
+        <f t="shared" ref="K197:K208" si="45">-LOG(1-J197,EXP(1))</f>
+        <v>1.6982691261407163</v>
+      </c>
+      <c r="L197" s="3">
+        <f t="shared" ref="L197:L208" si="46">100000*K197*1000/E197</f>
+        <v>16982691.261407163</v>
+      </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198">
@@ -8145,6 +8158,18 @@
       <c r="I198" s="3">
         <v>7740000</v>
       </c>
+      <c r="J198">
+        <f t="shared" si="44"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="45"/>
+        <v>1.4872202797098513</v>
+      </c>
+      <c r="L198" s="3">
+        <f t="shared" si="46"/>
+        <v>14872202.797098514</v>
+      </c>
     </row>
     <row r="199" spans="1:12">
       <c r="A199">
@@ -8174,6 +8199,18 @@
       <c r="I199" s="3">
         <v>7980000</v>
       </c>
+      <c r="J199">
+        <f t="shared" si="44"/>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="45"/>
+        <v>1.599487581580932</v>
+      </c>
+      <c r="L199" s="3">
+        <f t="shared" si="46"/>
+        <v>15994875.815809321</v>
+      </c>
     </row>
     <row r="200" spans="1:12">
       <c r="A200">
@@ -8203,6 +8240,18 @@
       <c r="I200" s="3">
         <v>17150000</v>
       </c>
+      <c r="J200">
+        <f t="shared" si="44"/>
+        <v>0.34299999999999997</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="45"/>
+        <v>0.42007126049752652</v>
+      </c>
+      <c r="L200" s="3">
+        <f t="shared" si="46"/>
+        <v>21003563.024876326</v>
+      </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201">
@@ -8232,6 +8281,18 @@
       <c r="I201" s="3">
         <v>15050000</v>
       </c>
+      <c r="J201">
+        <f t="shared" si="44"/>
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="45"/>
+        <v>0.35810453674832671</v>
+      </c>
+      <c r="L201" s="3">
+        <f t="shared" si="46"/>
+        <v>17905226.837416336</v>
+      </c>
     </row>
     <row r="202" spans="1:12">
       <c r="A202">
@@ -8261,6 +8322,18 @@
       <c r="I202" s="3">
         <v>13949999.999999998</v>
       </c>
+      <c r="J202">
+        <f t="shared" si="44"/>
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="45"/>
+        <v>0.32711614169718783</v>
+      </c>
+      <c r="L202" s="3">
+        <f t="shared" si="46"/>
+        <v>16355807.084859392</v>
+      </c>
     </row>
     <row r="203" spans="1:12">
       <c r="A203">
@@ -8290,6 +8363,18 @@
       <c r="I203" s="3">
         <v>19699999.999999996</v>
       </c>
+      <c r="J203">
+        <f t="shared" si="44"/>
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="45"/>
+        <v>8.2078111035606902E-2</v>
+      </c>
+      <c r="L203" s="3">
+        <f t="shared" si="46"/>
+        <v>20519527.758901726</v>
+      </c>
     </row>
     <row r="204" spans="1:12">
       <c r="A204">
@@ -8319,6 +8404,18 @@
       <c r="I204" s="3">
         <v>18000000</v>
       </c>
+      <c r="J204">
+        <f t="shared" si="44"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="45"/>
+        <v>7.4723546195936547E-2</v>
+      </c>
+      <c r="L204" s="3">
+        <f t="shared" si="46"/>
+        <v>18680886.548984133</v>
+      </c>
     </row>
     <row r="205" spans="1:12">
       <c r="A205">
@@ -8348,6 +8445,18 @@
       <c r="I205" s="3">
         <v>19000000</v>
       </c>
+      <c r="J205">
+        <f t="shared" si="44"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="45"/>
+        <v>7.9043207340452851E-2</v>
+      </c>
+      <c r="L205" s="3">
+        <f t="shared" si="46"/>
+        <v>19760801.835113212</v>
+      </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206">
@@ -8377,6 +8486,18 @@
       <c r="I206" s="3">
         <v>23750000</v>
       </c>
+      <c r="J206">
+        <f t="shared" si="44"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="45"/>
+        <v>1.9182819416773987E-2</v>
+      </c>
+      <c r="L206" s="3">
+        <f t="shared" si="46"/>
+        <v>23978524.270967484</v>
+      </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207">
@@ -8406,6 +8527,18 @@
       <c r="I207" s="3">
         <v>18000000</v>
       </c>
+      <c r="J207">
+        <f t="shared" si="44"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="45"/>
+        <v>1.4504686202881688E-2</v>
+      </c>
+      <c r="L207" s="3">
+        <f t="shared" si="46"/>
+        <v>18130857.75360211</v>
+      </c>
     </row>
     <row r="208" spans="1:12">
       <c r="A208">
@@ -8435,6 +8568,18 @@
       <c r="I208" s="3">
         <v>18875000</v>
       </c>
+      <c r="J208">
+        <f t="shared" si="44"/>
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="45"/>
+        <v>1.5215165806480377E-2</v>
+      </c>
+      <c r="L208" s="3">
+        <f t="shared" si="46"/>
+        <v>19018957.258100469</v>
+      </c>
     </row>
     <row r="210" spans="1:12">
       <c r="A210">
@@ -8464,6 +8609,18 @@
       <c r="I210" s="3">
         <v>8700000</v>
       </c>
+      <c r="J210">
+        <f t="shared" ref="J210:J221" si="47">H210/100</f>
+        <v>0.87</v>
+      </c>
+      <c r="K210">
+        <f t="shared" ref="K210:K221" si="48">-LOG(1-J210,EXP(1))</f>
+        <v>2.0402208285265546</v>
+      </c>
+      <c r="L210" s="3">
+        <f t="shared" ref="L210:L221" si="49">100000*K210*1000/E210</f>
+        <v>20402208.285265546</v>
+      </c>
     </row>
     <row r="211" spans="1:12">
       <c r="A211">
@@ -8493,6 +8650,18 @@
       <c r="I211" s="3">
         <v>8200000</v>
       </c>
+      <c r="J211">
+        <f t="shared" si="47"/>
+        <v>0.82</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="48"/>
+        <v>1.7147984280919264</v>
+      </c>
+      <c r="L211" s="3">
+        <f t="shared" si="49"/>
+        <v>17147984.280919261</v>
+      </c>
     </row>
     <row r="212" spans="1:12">
       <c r="A212">
@@ -8522,6 +8691,18 @@
       <c r="I212" s="3">
         <v>7929999.9999999981</v>
       </c>
+      <c r="J212">
+        <f t="shared" si="47"/>
+        <v>0.79299999999999993</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="48"/>
+        <v>1.5750364857167676</v>
+      </c>
+      <c r="L212" s="3">
+        <f t="shared" si="49"/>
+        <v>15750364.857167676</v>
+      </c>
     </row>
     <row r="213" spans="1:12">
       <c r="A213">
@@ -8551,6 +8732,18 @@
       <c r="I213" s="3">
         <v>26400000</v>
       </c>
+      <c r="J213">
+        <f t="shared" si="47"/>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="48"/>
+        <v>0.7507762933965817</v>
+      </c>
+      <c r="L213" s="3">
+        <f t="shared" si="49"/>
+        <v>37538814.669829085</v>
+      </c>
     </row>
     <row r="214" spans="1:12">
       <c r="A214">
@@ -8580,6 +8773,18 @@
       <c r="I214" s="3">
         <v>23950000</v>
       </c>
+      <c r="J214">
+        <f t="shared" si="47"/>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="48"/>
+        <v>0.65200523722877013</v>
+      </c>
+      <c r="L214" s="3">
+        <f t="shared" si="49"/>
+        <v>32600261.861438505</v>
+      </c>
     </row>
     <row r="215" spans="1:12">
       <c r="A215">
@@ -8609,6 +8814,18 @@
       <c r="I215" s="3">
         <v>23900000</v>
       </c>
+      <c r="J215">
+        <f t="shared" si="47"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="48"/>
+        <v>0.65008769109949827</v>
+      </c>
+      <c r="L215" s="3">
+        <f t="shared" si="49"/>
+        <v>32504384.554974914</v>
+      </c>
     </row>
     <row r="216" spans="1:12">
       <c r="A216">
@@ -8638,6 +8855,18 @@
       <c r="I216" s="3">
         <v>45000000</v>
       </c>
+      <c r="J216">
+        <f t="shared" si="47"/>
+        <v>0.18</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="48"/>
+        <v>0.19845093872383818</v>
+      </c>
+      <c r="L216" s="3">
+        <f t="shared" si="49"/>
+        <v>49612734.680959545</v>
+      </c>
     </row>
     <row r="217" spans="1:12">
       <c r="A217">
@@ -8667,6 +8896,18 @@
       <c r="I217" s="3">
         <v>38500000</v>
       </c>
+      <c r="J217">
+        <f t="shared" si="47"/>
+        <v>0.154</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="48"/>
+        <v>0.16723591937591381</v>
+      </c>
+      <c r="L217" s="3">
+        <f t="shared" si="49"/>
+        <v>41808979.84397845</v>
+      </c>
     </row>
     <row r="218" spans="1:12">
       <c r="A218">
@@ -8696,6 +8937,18 @@
       <c r="I218" s="3">
         <v>40750000</v>
       </c>
+      <c r="J218">
+        <f t="shared" si="47"/>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="48"/>
+        <v>0.17793120849266178</v>
+      </c>
+      <c r="L218" s="3">
+        <f t="shared" si="49"/>
+        <v>44482802.123165444</v>
+      </c>
     </row>
     <row r="219" spans="1:12">
       <c r="A219">
@@ -8725,6 +8978,18 @@
       <c r="I219" s="3">
         <v>56750000</v>
       </c>
+      <c r="J219">
+        <f t="shared" si="47"/>
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="48"/>
+        <v>4.646287441034086E-2</v>
+      </c>
+      <c r="L219" s="3">
+        <f t="shared" si="49"/>
+        <v>58078593.012926064</v>
+      </c>
     </row>
     <row r="220" spans="1:12">
       <c r="A220">
@@ -8754,6 +9019,18 @@
       <c r="I220" s="3">
         <v>37375000.000000007</v>
       </c>
+      <c r="J220">
+        <f t="shared" si="47"/>
+        <v>2.9900000000000003E-2</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="48"/>
+        <v>3.0356120014899235E-2</v>
+      </c>
+      <c r="L220" s="3">
+        <f t="shared" si="49"/>
+        <v>37945150.018624038</v>
+      </c>
     </row>
     <row r="221" spans="1:12">
       <c r="A221">
@@ -8782,6 +9059,18 @@
       </c>
       <c r="I221" s="3">
         <v>49249999.999999993</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="47"/>
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="48"/>
+        <v>4.0197189751413037E-2</v>
+      </c>
+      <c r="L221" s="3">
+        <f t="shared" si="49"/>
+        <v>50246487.189266302</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8814,7 +9103,7 @@
         <v>8900000</v>
       </c>
       <c r="J223">
-        <f t="shared" ref="J223:J234" si="44">H223/100</f>
+        <f t="shared" ref="J223:J234" si="50">H223/100</f>
         <v>0.89</v>
       </c>
       <c r="K223">
@@ -8856,15 +9145,15 @@
         <v>8000000</v>
       </c>
       <c r="J224">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0.8</v>
       </c>
       <c r="K224">
-        <f t="shared" ref="K224:K234" si="45">-LOG(1-J224,EXP(1))</f>
+        <f t="shared" ref="K224:K234" si="51">-LOG(1-J224,EXP(1))</f>
         <v>1.6094379124341005</v>
       </c>
       <c r="L224" s="3">
-        <f t="shared" ref="L224" si="46">100000*K224*1000/E224</f>
+        <f t="shared" ref="L224" si="52">100000*K224*1000/E224</f>
         <v>16094379.124341005</v>
       </c>
     </row>
@@ -8894,11 +9183,11 @@
         <v>0.33</v>
       </c>
       <c r="J225">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.3E-3</v>
       </c>
       <c r="K225">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3.3054570087264813E-3</v>
       </c>
     </row>
@@ -8928,11 +9217,11 @@
         <v>0.45</v>
       </c>
       <c r="J226">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="K226">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>4.510155477886019E-3</v>
       </c>
     </row>
@@ -8962,11 +9251,11 @@
         <v>0.48</v>
       </c>
       <c r="J227">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="K227">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>4.8115569972220816E-3</v>
       </c>
     </row>
@@ -8996,11 +9285,11 @@
         <v>0.39</v>
       </c>
       <c r="J228">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.9000000000000003E-3</v>
       </c>
       <c r="K228">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3.9076248310170765E-3</v>
       </c>
     </row>
@@ -9030,11 +9319,11 @@
         <v>0.38</v>
       </c>
       <c r="J229">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.8E-3</v>
       </c>
       <c r="K229">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3.8072383429540663E-3</v>
       </c>
     </row>
@@ -9064,11 +9353,11 @@
         <v>0.31</v>
       </c>
       <c r="J230">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="K230">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3.1048149534787565E-3</v>
       </c>
     </row>
@@ -9098,11 +9387,11 @@
         <v>0.46</v>
       </c>
       <c r="J231">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="K231">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>4.6106125576832937E-3</v>
       </c>
     </row>
@@ -9132,11 +9421,11 @@
         <v>0.39</v>
       </c>
       <c r="J232">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.9000000000000003E-3</v>
       </c>
       <c r="K232">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3.9076248310170765E-3</v>
       </c>
     </row>
@@ -9166,11 +9455,11 @@
         <v>0.3</v>
       </c>
       <c r="J233">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K233">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3.0045090202987243E-3</v>
       </c>
     </row>
@@ -9200,11 +9489,11 @@
         <v>0.33</v>
       </c>
       <c r="J234">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.3E-3</v>
       </c>
       <c r="K234">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3.3054570087264813E-3</v>
       </c>
     </row>
@@ -9237,15 +9526,15 @@
         <v>6050000</v>
       </c>
       <c r="J238">
-        <f t="shared" ref="J238:J249" si="47">H238/100</f>
+        <f t="shared" ref="J238:J249" si="53">H238/100</f>
         <v>0.60499999999999998</v>
       </c>
       <c r="K238">
-        <f t="shared" ref="K238:K301" si="48">-LOG(1-J238,EXP(1))</f>
+        <f t="shared" ref="K238:K301" si="54">-LOG(1-J238,EXP(1))</f>
         <v>0.92886951408101515</v>
       </c>
       <c r="L238" s="3">
-        <f t="shared" ref="L238:L249" si="49">100000*K238*1000/E238</f>
+        <f t="shared" ref="L238:L249" si="55">100000*K238*1000/E238</f>
         <v>9288695.1408101507</v>
       </c>
       <c r="N238" s="6" t="s">
@@ -9281,15 +9570,15 @@
         <v>5960000</v>
       </c>
       <c r="J239">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.59599999999999997</v>
       </c>
       <c r="K239">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.9063404010209869</v>
       </c>
       <c r="L239" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>9063404.0102098696</v>
       </c>
       <c r="N239" s="6" t="s">
@@ -9325,15 +9614,15 @@
         <v>6210000</v>
       </c>
       <c r="J240">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.621</v>
       </c>
       <c r="K240">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.97021907389971074</v>
       </c>
       <c r="L240" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>9702190.7389971074</v>
       </c>
       <c r="N240" s="6" t="s">
@@ -9369,15 +9658,15 @@
         <v>8600000</v>
       </c>
       <c r="J241">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.17199999999999999</v>
       </c>
       <c r="K241">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.18874212459687728</v>
       </c>
       <c r="L241" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>9437106.2298438642</v>
       </c>
     </row>
@@ -9410,15 +9699,15 @@
         <v>9300000.0000000019</v>
       </c>
       <c r="J242">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.18600000000000003</v>
       </c>
       <c r="K242">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.20579491297959682</v>
       </c>
       <c r="L242" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>10289745.648979841</v>
       </c>
     </row>
@@ -9451,15 +9740,15 @@
         <v>8450000</v>
       </c>
       <c r="J243">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.16899999999999998</v>
       </c>
       <c r="K243">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.18512548412668892</v>
       </c>
       <c r="L243" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>9256274.2063344475</v>
       </c>
     </row>
@@ -9492,15 +9781,15 @@
         <v>12725000</v>
       </c>
       <c r="J244">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="K244">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.2241111845690483E-2</v>
       </c>
       <c r="L244" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>13060277.96142262</v>
       </c>
     </row>
@@ -9533,15 +9822,15 @@
         <v>14275000</v>
       </c>
       <c r="J245">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="K245">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.8795046510505489E-2</v>
       </c>
       <c r="L245" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>14698761.627626373</v>
       </c>
     </row>
@@ -9574,15 +9863,15 @@
         <v>13450000</v>
       </c>
       <c r="J246">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>5.3800000000000001E-2</v>
       </c>
       <c r="K246">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.530131578508931E-2</v>
       </c>
       <c r="L246" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>13825328.946272327</v>
       </c>
     </row>
@@ -9615,15 +9904,15 @@
         <v>15625000</v>
       </c>
       <c r="J247">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K247">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.2578782206860073E-2</v>
       </c>
       <c r="L247" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>15723477.758575091</v>
       </c>
     </row>
@@ -9656,15 +9945,15 @@
         <v>17499999.999999996</v>
       </c>
       <c r="J248">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="K248">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.4098924379501648E-2</v>
       </c>
       <c r="L248" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>17623655.474377058</v>
       </c>
     </row>
@@ -9697,15 +9986,15 @@
         <v>18250000</v>
       </c>
       <c r="J249">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1.46E-2</v>
       </c>
       <c r="K249">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.4707628872274288E-2</v>
       </c>
       <c r="L249" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>18384536.090342861</v>
       </c>
     </row>
@@ -9738,15 +10027,15 @@
         <v>6120000</v>
       </c>
       <c r="J251">
-        <f t="shared" ref="J251:J262" si="50">H251/100</f>
+        <f t="shared" ref="J251:J262" si="56">H251/100</f>
         <v>0.61199999999999999</v>
       </c>
       <c r="K251">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.94674993935886353</v>
       </c>
       <c r="L251" s="3">
-        <f t="shared" ref="L251:L262" si="51">100000*K251*1000/E251</f>
+        <f t="shared" ref="L251:L262" si="57">100000*K251*1000/E251</f>
         <v>9467499.3935886361</v>
       </c>
       <c r="N251" s="6" t="s">
@@ -9782,15 +10071,15 @@
         <v>5890000</v>
       </c>
       <c r="J252">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.58899999999999997</v>
       </c>
       <c r="K252">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.8891620644859024</v>
       </c>
       <c r="L252" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>8891620.6448590234</v>
       </c>
       <c r="N252" s="6" t="s">
@@ -9826,15 +10115,15 @@
         <v>5930000</v>
       </c>
       <c r="J253">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.59299999999999997</v>
       </c>
       <c r="K253">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.89894209353954202</v>
       </c>
       <c r="L253" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>8989420.9353954196</v>
       </c>
       <c r="N253" s="6" t="s">
@@ -9870,15 +10159,15 @@
         <v>9849999.9999999981</v>
       </c>
       <c r="J254">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.19699999999999998</v>
       </c>
       <c r="K254">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.21940056503537533</v>
       </c>
       <c r="L254" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>10970028.251768766</v>
       </c>
       <c r="N254" s="7" t="s">
@@ -9914,15 +10203,15 @@
         <v>10650000</v>
       </c>
       <c r="J255">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.21299999999999999</v>
       </c>
       <c r="K255">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.23952703056473379</v>
       </c>
       <c r="L255" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>11976351.528236689</v>
       </c>
       <c r="N255" s="7" t="s">
@@ -9958,15 +10247,15 @@
         <v>10750000</v>
       </c>
       <c r="J256">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.215</v>
       </c>
       <c r="K256">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.24207156119972859</v>
       </c>
       <c r="L256" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>12103578.059986429</v>
       </c>
       <c r="N256" s="7" t="s">
@@ -10002,15 +10291,15 @@
         <v>12549999.999999996</v>
       </c>
       <c r="J257">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>5.0199999999999995E-2</v>
       </c>
       <c r="K257">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.150384286711561E-2</v>
       </c>
       <c r="L257" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>12875960.7167789</v>
       </c>
     </row>
@@ -10043,15 +10332,15 @@
         <v>12600000</v>
       </c>
       <c r="J258">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>5.04E-2</v>
       </c>
       <c r="K258">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.1714435686678772E-2</v>
       </c>
       <c r="L258" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>12928608.921669694</v>
       </c>
     </row>
@@ -10084,15 +10373,15 @@
         <v>12625000</v>
       </c>
       <c r="J259">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>5.0499999999999996E-2</v>
       </c>
       <c r="K259">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.1819748729796472E-2</v>
       </c>
       <c r="L259" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>12954937.182449117</v>
       </c>
     </row>
@@ -10125,15 +10414,15 @@
         <v>14750000</v>
       </c>
       <c r="J260">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1.18E-2</v>
       </c>
       <c r="K260">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.1870172570487445E-2</v>
       </c>
       <c r="L260" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>14837715.713109305</v>
       </c>
     </row>
@@ -10166,15 +10455,15 @@
         <v>15500000</v>
       </c>
       <c r="J261">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1.24E-2</v>
       </c>
       <c r="K261">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.2477521511112579E-2</v>
       </c>
       <c r="L261" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>15596901.888890725</v>
       </c>
     </row>
@@ -10207,15 +10496,15 @@
         <v>15500000</v>
       </c>
       <c r="J262">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1.24E-2</v>
       </c>
       <c r="K262">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.2477521511112579E-2</v>
       </c>
       <c r="L262" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>15596901.888890725</v>
       </c>
     </row>
@@ -10248,15 +10537,15 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <f t="shared" ref="J264:J275" si="52">H264/100</f>
+        <f t="shared" ref="J264:J275" si="58">H264/100</f>
         <v>0</v>
       </c>
       <c r="K264">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L264" s="3">
-        <f t="shared" ref="L264:L275" si="53">100000*K264*1000/E264</f>
+        <f t="shared" ref="L264:L275" si="59">100000*K264*1000/E264</f>
         <v>0</v>
       </c>
       <c r="N264" s="6" t="s">
@@ -10292,15 +10581,15 @@
         <v>556000</v>
       </c>
       <c r="J265">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="K265">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.7205473770779183E-2</v>
       </c>
       <c r="L265" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>572054.73770779185</v>
       </c>
       <c r="N265" s="6" t="s">
@@ -10336,15 +10625,15 @@
         <v>909000</v>
       </c>
       <c r="J266">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>9.0899999999999995E-2</v>
       </c>
       <c r="K266">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>9.5300179854324499E-2</v>
       </c>
       <c r="L266" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>953001.79854324495</v>
       </c>
       <c r="N266" s="6" t="s">
@@ -10380,15 +10669,15 @@
         <v>5900000</v>
       </c>
       <c r="J267">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.11800000000000001</v>
       </c>
       <c r="K267">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.12556322297534575</v>
       </c>
       <c r="L267" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>6278161.1487672869</v>
       </c>
       <c r="N267" s="6" t="s">
@@ -10424,15 +10713,15 @@
         <v>6200000</v>
       </c>
       <c r="J268">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.124</v>
       </c>
       <c r="K268">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.13238918804574562</v>
       </c>
       <c r="L268" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>6619459.4022872811</v>
       </c>
       <c r="N268" s="6" t="s">
@@ -10468,15 +10757,15 @@
         <v>5900000</v>
       </c>
       <c r="J269">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.11800000000000001</v>
       </c>
       <c r="K269">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.12556322297534575</v>
       </c>
       <c r="L269" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>6278161.1487672869</v>
       </c>
       <c r="N269" s="6" t="s">
@@ -10512,15 +10801,15 @@
         <v>11800000</v>
       </c>
       <c r="J270">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="K270">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4.8350260941046726E-2</v>
       </c>
       <c r="L270" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>12087565.235261681</v>
       </c>
     </row>
@@ -10553,15 +10842,15 @@
         <v>11175000</v>
       </c>
       <c r="J271">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="K271">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4.5729851706174329E-2</v>
       </c>
       <c r="L271" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>11432462.926543582</v>
       </c>
     </row>
@@ -10594,15 +10883,15 @@
         <v>12275000.000000002</v>
       </c>
       <c r="J272">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>4.9100000000000005E-2</v>
       </c>
       <c r="K272">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5.0346374436738527E-2</v>
       </c>
       <c r="L272" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>12586593.609184632</v>
       </c>
     </row>
@@ -10635,15 +10924,15 @@
         <v>16875000.000000004</v>
       </c>
       <c r="J273">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1.3500000000000002E-2</v>
       </c>
       <c r="K273">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.3591953519466972E-2</v>
       </c>
       <c r="L273" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>16989941.899333712</v>
       </c>
     </row>
@@ -10676,15 +10965,15 @@
         <v>17125000</v>
       </c>
       <c r="J274">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1.37E-2</v>
       </c>
       <c r="K274">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.379471102218926E-2</v>
       </c>
       <c r="L274" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>17243388.777736574</v>
       </c>
     </row>
@@ -10717,15 +11006,15 @@
         <v>18875000</v>
       </c>
       <c r="J275">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="K275">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.5215165806480377E-2</v>
       </c>
       <c r="L275" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>19018957.258100469</v>
       </c>
     </row>
@@ -10758,11 +11047,11 @@
         <v>7600000</v>
       </c>
       <c r="J277">
-        <f t="shared" ref="J277:J288" si="54">H277/100</f>
+        <f t="shared" ref="J277:J288" si="60">H277/100</f>
         <v>0.76</v>
       </c>
       <c r="K277">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.4271163556401458</v>
       </c>
       <c r="L277" s="3">
@@ -10799,15 +11088,15 @@
         <v>7330000</v>
       </c>
       <c r="J278">
+        <f t="shared" si="60"/>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="K278">
         <f t="shared" si="54"/>
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="K278">
-        <f t="shared" si="48"/>
         <v>1.3205066205818874</v>
       </c>
       <c r="L278" s="3">
-        <f t="shared" ref="L278:L288" si="55">100000*K278*1000/E278</f>
+        <f t="shared" ref="L278:L288" si="61">100000*K278*1000/E278</f>
         <v>13205066.205818873</v>
       </c>
     </row>
@@ -10840,15 +11129,15 @@
         <v>6780000</v>
       </c>
       <c r="J279">
+        <f t="shared" si="60"/>
+        <v>0.67799999999999994</v>
+      </c>
+      <c r="K279">
         <f t="shared" si="54"/>
-        <v>0.67799999999999994</v>
-      </c>
-      <c r="K279">
-        <f t="shared" si="48"/>
         <v>1.1332037334377285</v>
       </c>
       <c r="L279" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>11332037.334377285</v>
       </c>
     </row>
@@ -10881,15 +11170,15 @@
         <v>6700000</v>
       </c>
       <c r="J280">
+        <f t="shared" si="60"/>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K280">
         <f t="shared" si="54"/>
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="K280">
-        <f t="shared" si="48"/>
         <v>0.14387037041970191</v>
       </c>
       <c r="L280" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>7193518.5209850948</v>
       </c>
     </row>
@@ -10922,15 +11211,15 @@
         <v>7350000</v>
       </c>
       <c r="J281">
+        <f t="shared" si="60"/>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K281">
         <f t="shared" si="54"/>
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="K281">
-        <f t="shared" si="48"/>
         <v>0.15899573149045795</v>
       </c>
       <c r="L281" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>7949786.5745228976</v>
       </c>
     </row>
@@ -10963,15 +11252,15 @@
         <v>8650000</v>
       </c>
       <c r="J282">
+        <f t="shared" si="60"/>
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="K282">
         <f t="shared" si="54"/>
-        <v>0.17300000000000001</v>
-      </c>
-      <c r="K282">
-        <f t="shared" si="48"/>
         <v>0.1899505839584458</v>
       </c>
       <c r="L282" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>9497529.1979222894</v>
       </c>
     </row>
@@ -11004,15 +11293,15 @@
         <v>13100000</v>
       </c>
       <c r="J283">
+        <f t="shared" si="60"/>
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="K283">
         <f t="shared" si="54"/>
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="K283">
-        <f t="shared" si="48"/>
         <v>5.3822806697506657E-2</v>
       </c>
       <c r="L283" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>13455701.674376663</v>
       </c>
     </row>
@@ -11045,15 +11334,15 @@
         <v>11675000</v>
       </c>
       <c r="J284">
+        <f t="shared" si="60"/>
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="K284">
         <f t="shared" si="54"/>
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="K284">
-        <f t="shared" si="48"/>
         <v>4.7825629482604548E-2</v>
       </c>
       <c r="L284" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>11956407.370651135</v>
       </c>
     </row>
@@ -11086,15 +11375,15 @@
         <v>12849999.999999996</v>
       </c>
       <c r="J285">
+        <f t="shared" si="60"/>
+        <v>5.1399999999999994E-2</v>
+      </c>
+      <c r="K285">
         <f t="shared" si="54"/>
-        <v>5.1399999999999994E-2</v>
-      </c>
-      <c r="K285">
-        <f t="shared" si="48"/>
         <v>5.276806553865572E-2</v>
       </c>
       <c r="L285" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>13192016.384663928</v>
       </c>
     </row>
@@ -11127,15 +11416,15 @@
         <v>15000000</v>
       </c>
       <c r="J286">
+        <f t="shared" si="60"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="K286">
         <f t="shared" si="54"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="K286">
-        <f t="shared" si="48"/>
         <v>1.2072581234269249E-2</v>
       </c>
       <c r="L286" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>15090726.542836562</v>
       </c>
     </row>
@@ -11168,15 +11457,15 @@
         <v>14875000</v>
       </c>
       <c r="J287">
+        <f t="shared" si="60"/>
+        <v>1.1899999999999999E-2</v>
+      </c>
+      <c r="K287">
         <f t="shared" si="54"/>
-        <v>1.1899999999999999E-2</v>
-      </c>
-      <c r="K287">
-        <f t="shared" si="48"/>
         <v>1.1971371781219958E-2</v>
       </c>
       <c r="L287" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>14964214.726524949</v>
       </c>
     </row>
@@ -11209,15 +11498,15 @@
         <v>13125000</v>
       </c>
       <c r="J288">
+        <f t="shared" si="60"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K288">
         <f t="shared" si="54"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="K288">
-        <f t="shared" si="48"/>
         <v>1.0555513939516587E-2</v>
       </c>
       <c r="L288" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>13194392.424395733</v>
       </c>
     </row>
@@ -11250,15 +11539,15 @@
         <v>6760000</v>
       </c>
       <c r="J290">
-        <f t="shared" ref="J290:J301" si="56">H290/100</f>
+        <f t="shared" ref="J290:J301" si="62">H290/100</f>
         <v>0.67599999999999993</v>
       </c>
       <c r="K290">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.1270117631898076</v>
       </c>
       <c r="L290" s="3">
-        <f t="shared" ref="L290:L301" si="57">100000*K290*1000/E290</f>
+        <f t="shared" ref="L290:L301" si="63">100000*K290*1000/E290</f>
         <v>11270117.631898075</v>
       </c>
     </row>
@@ -11291,15 +11580,15 @@
         <v>7440000.0000000019</v>
       </c>
       <c r="J291">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.74400000000000011</v>
       </c>
       <c r="K291">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.362577834502575</v>
       </c>
       <c r="L291" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>13625778.345025752</v>
       </c>
     </row>
@@ -11332,15 +11621,15 @@
         <v>7620000</v>
       </c>
       <c r="J292">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="K292">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1.4354846053106625</v>
       </c>
       <c r="L292" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>14354846.053106626</v>
       </c>
     </row>
@@ -11373,15 +11662,15 @@
         <v>23750000</v>
       </c>
       <c r="J293">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="K293">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.64435701639051324</v>
       </c>
       <c r="L293" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>32217850.819525663</v>
       </c>
     </row>
@@ -11414,15 +11703,15 @@
         <v>21400000</v>
       </c>
       <c r="J294">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.42799999999999999</v>
       </c>
       <c r="K294">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.55861628760233906</v>
       </c>
       <c r="L294" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>27930814.380116954</v>
       </c>
     </row>
@@ -11455,15 +11744,15 @@
         <v>22250000</v>
       </c>
       <c r="J295">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.44500000000000001</v>
       </c>
       <c r="K295">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.58878716523570263</v>
       </c>
       <c r="L295" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>29439358.261785131</v>
       </c>
     </row>
@@ -11496,15 +11785,15 @@
         <v>31750000</v>
       </c>
       <c r="J296">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.127</v>
       </c>
       <c r="K296">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.13581972314253485</v>
       </c>
       <c r="L296" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>33954930.785633713</v>
       </c>
     </row>
@@ -11537,15 +11826,15 @@
         <v>30250000</v>
       </c>
       <c r="J297">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.121</v>
       </c>
       <c r="K297">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.12897038129696006</v>
       </c>
       <c r="L297" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>32242595.324240014</v>
       </c>
     </row>
@@ -11578,15 +11867,15 @@
         <v>32750000</v>
       </c>
       <c r="J298">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0.13100000000000001</v>
       </c>
       <c r="K298">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.14041215371674501</v>
       </c>
       <c r="L298" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>35103038.429186255</v>
       </c>
     </row>
@@ -11619,15 +11908,15 @@
         <v>43625000</v>
       </c>
       <c r="J299">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>3.49E-2</v>
       </c>
       <c r="K299">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>3.5523556069046738E-2</v>
       </c>
       <c r="L299" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>44404445.08630842</v>
       </c>
     </row>
@@ -11660,15 +11949,15 @@
         <v>45125000</v>
       </c>
       <c r="J300">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>3.61E-2</v>
       </c>
       <c r="K300">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>3.6767724192214607E-2</v>
       </c>
       <c r="L300" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>45959655.240268253</v>
       </c>
     </row>
@@ -11701,15 +11990,15 @@
         <v>50500000</v>
       </c>
       <c r="J301">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="K301">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4.1238748016597535E-2</v>
       </c>
       <c r="L301" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>51548435.020746917</v>
       </c>
     </row>
@@ -11743,7 +12032,7 @@
         <v>8050000.0000000009</v>
       </c>
       <c r="J303">
-        <f t="shared" ref="J303:J314" si="58">H303/100</f>
+        <f t="shared" ref="J303:J314" si="64">H303/100</f>
         <v>0.80500000000000005</v>
       </c>
       <c r="K303">
@@ -11785,15 +12074,15 @@
         <v>8220000.0000000009</v>
       </c>
       <c r="J304">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0.82200000000000006</v>
       </c>
       <c r="K304">
-        <f t="shared" ref="K304:K314" si="59">-LOG(1-J304,EXP(1))</f>
+        <f t="shared" ref="K304:K314" si="65">-LOG(1-J304,EXP(1))</f>
         <v>1.7259717286900522</v>
       </c>
       <c r="L304" s="3">
-        <f t="shared" ref="L304" si="60">100000*K304*1000/E304</f>
+        <f t="shared" ref="L304" si="66">100000*K304*1000/E304</f>
         <v>17259717.28690052</v>
       </c>
     </row>
@@ -11823,11 +12112,11 @@
         <v>0.34</v>
       </c>
       <c r="J305">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>3.4000000000000002E-3</v>
       </c>
       <c r="K305">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.405793134832821E-3</v>
       </c>
     </row>
@@ -11857,11 +12146,11 @@
         <v>0.45</v>
       </c>
       <c r="J306">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="K306">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4.510155477886019E-3</v>
       </c>
     </row>
@@ -11891,11 +12180,11 @@
         <v>0.6</v>
       </c>
       <c r="J307">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K307">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>6.0180723255630212E-3</v>
       </c>
     </row>
@@ -11925,11 +12214,11 @@
         <v>0.42</v>
       </c>
       <c r="J308">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="K308">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4.2088447740546821E-3</v>
       </c>
     </row>
@@ -11959,11 +12248,11 @@
         <v>0.49</v>
       </c>
       <c r="J309">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="K309">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4.9120443610206413E-3</v>
       </c>
     </row>
@@ -11993,11 +12282,11 @@
         <v>0.42</v>
       </c>
       <c r="J310">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="K310">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4.2088447740546821E-3</v>
       </c>
     </row>
@@ -12027,11 +12316,11 @@
         <v>0.59</v>
       </c>
       <c r="J311">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="K311">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>5.9174737640376226E-3</v>
       </c>
     </row>
@@ -12061,11 +12350,11 @@
         <v>0.47</v>
       </c>
       <c r="J312">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.6999999999999993E-3</v>
       </c>
       <c r="K312">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4.7110797301192229E-3</v>
       </c>
     </row>
@@ -12095,11 +12384,11 @@
         <v>0.33</v>
       </c>
       <c r="J313">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>3.3E-3</v>
       </c>
       <c r="K313">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>3.3054570087264813E-3</v>
       </c>
     </row>
@@ -12129,11 +12418,11 @@
         <v>0.45</v>
       </c>
       <c r="J314">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="K314">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4.510155477886019E-3</v>
       </c>
     </row>
@@ -12166,15 +12455,15 @@
         <v>7650000</v>
       </c>
       <c r="J318">
-        <f t="shared" ref="J318:J329" si="61">H318/100</f>
+        <f t="shared" ref="J318:J329" si="67">H318/100</f>
         <v>0.76500000000000001</v>
       </c>
       <c r="K318">
-        <f t="shared" ref="K318:K329" si="62">-LOG(1-J318,EXP(1))</f>
+        <f t="shared" ref="K318:K329" si="68">-LOG(1-J318,EXP(1))</f>
         <v>1.4481697648379781</v>
       </c>
       <c r="L318" s="3">
-        <f t="shared" ref="L318:L329" si="63">100000*K318*1000/E318</f>
+        <f t="shared" ref="L318:L329" si="69">100000*K318*1000/E318</f>
         <v>14481697.648379778</v>
       </c>
     </row>
@@ -12207,15 +12496,15 @@
         <v>7809999.9999999981</v>
       </c>
       <c r="J319">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.78099999999999992</v>
       </c>
       <c r="K319">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1.5186835491656359</v>
       </c>
       <c r="L319" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>15186835.491656357</v>
       </c>
     </row>
@@ -12248,15 +12537,15 @@
         <v>7980000</v>
       </c>
       <c r="J320">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.79799999999999993</v>
       </c>
       <c r="K320">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1.599487581580932</v>
       </c>
       <c r="L320" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>15994875.815809321</v>
       </c>
     </row>
@@ -12289,15 +12578,15 @@
         <v>12500000</v>
       </c>
       <c r="J321">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.25</v>
       </c>
       <c r="K321">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.2876820724517809</v>
       </c>
       <c r="L321" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>14384103.622589046</v>
       </c>
     </row>
@@ -12330,15 +12619,15 @@
         <v>13000000</v>
       </c>
       <c r="J322">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.26</v>
       </c>
       <c r="K322">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.30110509278392161</v>
       </c>
       <c r="L322" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>15055254.639196081</v>
       </c>
     </row>
@@ -12371,15 +12660,15 @@
         <v>14449999.999999998</v>
       </c>
       <c r="J323">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0.28899999999999998</v>
       </c>
       <c r="K323">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.34108284917889609</v>
       </c>
       <c r="L323" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>17054142.458944805</v>
       </c>
     </row>
@@ -12412,15 +12701,15 @@
         <v>15500000</v>
       </c>
       <c r="J324">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>6.2E-2</v>
       </c>
       <c r="K324">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>6.4005329975912434E-2</v>
       </c>
       <c r="L324" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>16001332.493978109</v>
       </c>
     </row>
@@ -12453,15 +12742,15 @@
         <v>16825000</v>
       </c>
       <c r="J325">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>6.7299999999999999E-2</v>
       </c>
       <c r="K325">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>6.9671673249319263E-2</v>
       </c>
       <c r="L325" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>17417918.312329814</v>
       </c>
     </row>
@@ -12494,15 +12783,15 @@
         <v>18974999.999999996</v>
       </c>
       <c r="J326">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>7.5899999999999995E-2</v>
       </c>
       <c r="K326">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>7.8934988088142269E-2</v>
       </c>
       <c r="L326" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>19733747.022035569</v>
       </c>
     </row>
@@ -12535,15 +12824,15 @@
         <v>17625000</v>
       </c>
       <c r="J327">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>1.41E-2</v>
       </c>
       <c r="K327">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1.4200349401141401E-2</v>
       </c>
       <c r="L327" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>17750436.751426749</v>
       </c>
     </row>
@@ -12576,15 +12865,15 @@
         <v>17625000</v>
       </c>
       <c r="J328">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>1.41E-2</v>
       </c>
       <c r="K328">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1.4200349401141401E-2</v>
       </c>
       <c r="L328" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>17750436.751426749</v>
       </c>
     </row>
@@ -12617,15 +12906,15 @@
         <v>20250000.000000004</v>
       </c>
       <c r="J329">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>1.6200000000000003E-2</v>
       </c>
       <c r="K329">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1.633265462089761E-2</v>
       </c>
       <c r="L329" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>20415818.276122015</v>
       </c>
     </row>
@@ -12658,15 +12947,15 @@
         <v>9020000</v>
       </c>
       <c r="J331">
-        <f t="shared" ref="J331:J342" si="64">H331/100</f>
+        <f t="shared" ref="J331:J342" si="70">H331/100</f>
         <v>0.90200000000000002</v>
       </c>
       <c r="K331">
-        <f t="shared" ref="K331:K342" si="65">-LOG(1-J331,EXP(1))</f>
+        <f t="shared" ref="K331:K342" si="71">-LOG(1-J331,EXP(1))</f>
         <v>2.3227878003115654</v>
       </c>
       <c r="L331" s="3">
-        <f t="shared" ref="L331:L342" si="66">100000*K331*1000/E331</f>
+        <f t="shared" ref="L331:L342" si="72">100000*K331*1000/E331</f>
         <v>23227878.003115654</v>
       </c>
     </row>
@@ -12699,15 +12988,15 @@
         <v>8959999.9999999981</v>
       </c>
       <c r="J332">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.89599999999999991</v>
       </c>
       <c r="K332">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2.2633643798407634</v>
       </c>
       <c r="L332" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>22633643.798407637</v>
       </c>
     </row>
@@ -12740,15 +13029,15 @@
         <v>9150000</v>
       </c>
       <c r="J333">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.91500000000000004</v>
       </c>
       <c r="K333">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2.465104022491821</v>
       </c>
       <c r="L333" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>24651040.224918209</v>
       </c>
     </row>
@@ -12781,15 +13070,15 @@
         <v>25300000</v>
       </c>
       <c r="J334">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.50600000000000001</v>
       </c>
       <c r="K334">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.70521976179421453</v>
       </c>
       <c r="L334" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>35260988.089710727</v>
       </c>
     </row>
@@ -12822,15 +13111,15 @@
         <v>25250000</v>
       </c>
       <c r="J335">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.505</v>
       </c>
       <c r="K335">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.70319751641344674</v>
       </c>
       <c r="L335" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>35159875.820672333</v>
       </c>
     </row>
@@ -12863,15 +13152,15 @@
         <v>26500000</v>
       </c>
       <c r="J336">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.53</v>
       </c>
       <c r="K336">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.75502258427803282</v>
       </c>
       <c r="L336" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>37751129.213901646</v>
       </c>
     </row>
@@ -12904,15 +13193,15 @@
         <v>45250000.000000007</v>
       </c>
       <c r="J337">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.18100000000000002</v>
       </c>
       <c r="K337">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.1996711951290677</v>
       </c>
       <c r="L337" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>49917798.782266922</v>
       </c>
     </row>
@@ -12945,15 +13234,15 @@
         <v>40000000</v>
       </c>
       <c r="J338">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.16</v>
       </c>
       <c r="K338">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.1743533871447778</v>
       </c>
       <c r="L338" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>43588346.786194451</v>
       </c>
     </row>
@@ -12986,15 +13275,15 @@
         <v>44500000.000000007</v>
       </c>
       <c r="J339">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>0.17800000000000002</v>
       </c>
       <c r="K339">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.1960148839259572</v>
       </c>
       <c r="L339" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>49003720.981489293</v>
       </c>
     </row>
@@ -13027,15 +13316,15 @@
         <v>47750000</v>
       </c>
       <c r="J340">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3.8199999999999998E-2</v>
       </c>
       <c r="K340">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>3.8948750138574795E-2</v>
       </c>
       <c r="L340" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>48685937.673218496</v>
       </c>
     </row>
@@ -13068,15 +13357,15 @@
         <v>44125000</v>
       </c>
       <c r="J341">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>3.5299999999999998E-2</v>
       </c>
       <c r="K341">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>3.5938106805629151E-2</v>
       </c>
       <c r="L341" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>44922633.507036433</v>
       </c>
     </row>
@@ -13109,15 +13398,15 @@
         <v>52749999.999999985</v>
       </c>
       <c r="J342">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4.2199999999999994E-2</v>
       </c>
       <c r="K342">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4.3116291073628077E-2</v>
       </c>
       <c r="L342" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>53895363.842035092</v>
       </c>
     </row>
@@ -13147,19 +13436,19 @@
         <v>90.1</v>
       </c>
       <c r="I344" s="3">
-        <f t="shared" ref="I344:I345" si="67">H344/E344*1000000</f>
+        <f t="shared" ref="I344:I345" si="73">H344/E344*1000000</f>
         <v>9010000</v>
       </c>
       <c r="J344">
-        <f t="shared" ref="J344:J355" si="68">H344/100</f>
+        <f t="shared" ref="J344:J355" si="74">H344/100</f>
         <v>0.90099999999999991</v>
       </c>
       <c r="K344">
-        <f t="shared" ref="K344:K355" si="69">-LOG(1-J344,EXP(1))</f>
+        <f t="shared" ref="K344:K355" si="75">-LOG(1-J344,EXP(1))</f>
         <v>2.3126354288475461</v>
       </c>
       <c r="L344" s="3">
-        <f t="shared" ref="L344:L345" si="70">100000*K344*1000/E344</f>
+        <f t="shared" ref="L344:L345" si="76">100000*K344*1000/E344</f>
         <v>23126354.288475461</v>
       </c>
     </row>
@@ -13189,19 +13478,19 @@
         <v>89.2</v>
       </c>
       <c r="I345" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>8920000</v>
       </c>
       <c r="J345">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.89200000000000002</v>
       </c>
       <c r="K345">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2.2256240518579173</v>
       </c>
       <c r="L345" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>22256240.518579174</v>
       </c>
     </row>
@@ -13231,11 +13520,11 @@
         <v>0.38</v>
       </c>
       <c r="J346">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>3.8E-3</v>
       </c>
       <c r="K346">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>3.8072383429540663E-3</v>
       </c>
     </row>
@@ -13265,11 +13554,11 @@
         <v>0.38</v>
       </c>
       <c r="J347">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>3.8E-3</v>
       </c>
       <c r="K347">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>3.8072383429540663E-3</v>
       </c>
     </row>
@@ -13299,11 +13588,11 @@
         <v>0.38</v>
       </c>
       <c r="J348">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>3.8E-3</v>
       </c>
       <c r="K348">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>3.8072383429540663E-3</v>
       </c>
     </row>
@@ -13333,11 +13622,11 @@
         <v>0.31</v>
       </c>
       <c r="J349">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="K349">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>3.1048149534787565E-3</v>
       </c>
     </row>
@@ -13367,11 +13656,11 @@
         <v>0.32</v>
       </c>
       <c r="J350">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="K350">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>3.2051309489483358E-3</v>
       </c>
     </row>
@@ -13401,11 +13690,11 @@
         <v>0.18</v>
       </c>
       <c r="J351">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1.8E-3</v>
       </c>
       <c r="K351">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1.8016219466282088E-3</v>
       </c>
     </row>
@@ -13435,11 +13724,11 @@
         <v>0.27</v>
       </c>
       <c r="J352">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="K352">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2.7036515743148232E-3</v>
       </c>
     </row>
@@ -13469,11 +13758,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J353">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>2.8000000000000004E-3</v>
       </c>
       <c r="K353">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2.8039273327342593E-3</v>
       </c>
     </row>
@@ -13503,11 +13792,11 @@
         <v>0.3</v>
       </c>
       <c r="J354">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K354">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>3.0045090202987243E-3</v>
       </c>
     </row>
@@ -13537,11 +13826,11 @@
         <v>0.23</v>
       </c>
       <c r="J355">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>2.3E-3</v>
       </c>
       <c r="K355">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2.3026490626755578E-3</v>
       </c>
     </row>
@@ -13574,15 +13863,15 @@
         <v>7809999.9999999981</v>
       </c>
       <c r="J359">
-        <f t="shared" ref="J359:J370" si="71">H359/100</f>
+        <f t="shared" ref="J359:J370" si="77">H359/100</f>
         <v>0.78099999999999992</v>
       </c>
       <c r="K359">
-        <f t="shared" ref="K359:K370" si="72">-LOG(1-J359,EXP(1))</f>
+        <f t="shared" ref="K359:K370" si="78">-LOG(1-J359,EXP(1))</f>
         <v>1.5186835491656359</v>
       </c>
       <c r="L359" s="3">
-        <f t="shared" ref="L359:L370" si="73">100000*K359*1000/E359</f>
+        <f t="shared" ref="L359:L370" si="79">100000*K359*1000/E359</f>
         <v>15186835.491656357</v>
       </c>
     </row>
@@ -13615,15 +13904,15 @@
         <v>7759999.9999999981</v>
       </c>
       <c r="J360">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.77599999999999991</v>
       </c>
       <c r="K360">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.4961092271270968</v>
       </c>
       <c r="L360" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>14961092.271270966</v>
       </c>
     </row>
@@ -13656,15 +13945,15 @@
         <v>7850000</v>
       </c>
       <c r="J361">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.78500000000000003</v>
       </c>
       <c r="K361">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.5371172508544744</v>
       </c>
       <c r="L361" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>15371172.508544743</v>
       </c>
     </row>
@@ -13697,15 +13986,15 @@
         <v>15400000</v>
       </c>
       <c r="J362">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.308</v>
       </c>
       <c r="K362">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.36816932336446756</v>
       </c>
       <c r="L362" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>18408466.168223377</v>
       </c>
     </row>
@@ -13738,15 +14027,15 @@
         <v>15200000</v>
       </c>
       <c r="J363">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.30399999999999999</v>
       </c>
       <c r="K363">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.36240561864771748</v>
       </c>
       <c r="L363" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>18120280.932385873</v>
       </c>
     </row>
@@ -13779,15 +14068,15 @@
         <v>15700000</v>
       </c>
       <c r="J364">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.314</v>
       </c>
       <c r="K364">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.37687765125625189</v>
       </c>
       <c r="L364" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>18843882.562812597</v>
       </c>
     </row>
@@ -13820,15 +14109,15 @@
         <v>20200000</v>
       </c>
       <c r="J365">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>8.0799999999999997E-2</v>
       </c>
       <c r="K365">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>8.425155244759111E-2</v>
       </c>
       <c r="L365" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>21062888.111897774</v>
       </c>
     </row>
@@ -13861,15 +14150,15 @@
         <v>19225000</v>
       </c>
       <c r="J366">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>7.690000000000001E-2</v>
       </c>
       <c r="K366">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>8.0017707986031181E-2</v>
       </c>
       <c r="L366" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>20004426.996507794</v>
       </c>
     </row>
@@ -13902,15 +14191,15 @@
         <v>19375000</v>
       </c>
       <c r="J367">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="K367">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>8.0667903067454819E-2</v>
       </c>
       <c r="L367" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>20166975.766863704</v>
       </c>
     </row>
@@ -13943,15 +14232,15 @@
         <v>20875000</v>
       </c>
       <c r="J368">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1.67E-2</v>
       </c>
       <c r="K368">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.6841017196026556E-2</v>
       </c>
       <c r="L368" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>21051271.495033193</v>
       </c>
     </row>
@@ -13984,15 +14273,15 @@
         <v>20125000</v>
       </c>
       <c r="J369">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1.61E-2</v>
       </c>
       <c r="K369">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.6231013110417272E-2</v>
       </c>
       <c r="L369" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>20288766.388021588</v>
       </c>
     </row>
@@ -14025,15 +14314,15 @@
         <v>22375000</v>
       </c>
       <c r="J370">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="K370">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.8062142818408518E-2</v>
       </c>
       <c r="L370" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>22577678.523010645</v>
       </c>
     </row>
@@ -14066,15 +14355,15 @@
         <v>9059999.9999999981</v>
       </c>
       <c r="J372">
-        <f t="shared" ref="J372:J383" si="74">H372/100</f>
+        <f t="shared" ref="J372:J383" si="80">H372/100</f>
         <v>0.90599999999999992</v>
       </c>
       <c r="K372">
-        <f t="shared" ref="K372:K383" si="75">-LOG(1-J372,EXP(1))</f>
+        <f t="shared" ref="K372:K383" si="81">-LOG(1-J372,EXP(1))</f>
         <v>2.3644604967121321</v>
       </c>
       <c r="L372" s="3">
-        <f t="shared" ref="L372:L383" si="76">100000*K372*1000/E372</f>
+        <f t="shared" ref="L372:L383" si="82">100000*K372*1000/E372</f>
         <v>23644604.967121322</v>
       </c>
     </row>
@@ -14107,15 +14396,15 @@
         <v>8850000</v>
       </c>
       <c r="J373">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.88500000000000001</v>
       </c>
       <c r="K373">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2.1628231506188871</v>
       </c>
       <c r="L373" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>21628231.506188873</v>
       </c>
     </row>
@@ -14148,15 +14437,15 @@
         <v>8710000</v>
       </c>
       <c r="J374">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.871</v>
       </c>
       <c r="K374">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2.0479428746204649</v>
       </c>
       <c r="L374" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>20479428.746204648</v>
       </c>
       <c r="N374" s="6" t="s">
@@ -14192,15 +14481,15 @@
         <v>26700000</v>
       </c>
       <c r="J375">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.53400000000000003</v>
       </c>
       <c r="K375">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.76356964485649126</v>
       </c>
       <c r="L375" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>38178482.242824562</v>
       </c>
     </row>
@@ -14233,15 +14522,15 @@
         <v>26000000</v>
       </c>
       <c r="J376">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.52</v>
       </c>
       <c r="K376">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.73396917508020043</v>
       </c>
       <c r="L376" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>36698458.754010022</v>
       </c>
     </row>
@@ -14274,15 +14563,15 @@
         <v>28100000.000000004</v>
       </c>
       <c r="J377">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.56200000000000006</v>
       </c>
       <c r="K377">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.82553636860569102</v>
       </c>
       <c r="L377" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>41276818.430284545</v>
       </c>
     </row>
@@ -14315,15 +14604,15 @@
         <v>41749999.999999985</v>
       </c>
       <c r="J378">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.16699999999999998</v>
       </c>
       <c r="K378">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.18272163681529441</v>
       </c>
       <c r="L378" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>45680409.203823596</v>
       </c>
     </row>
@@ -14356,15 +14645,15 @@
         <v>41250000</v>
       </c>
       <c r="J379">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="K379">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.18032355413128162</v>
       </c>
       <c r="L379" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>45080888.532820404</v>
       </c>
     </row>
@@ -14397,15 +14686,15 @@
         <v>43000000</v>
       </c>
       <c r="J380">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.17199999999999999</v>
       </c>
       <c r="K380">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.18874212459687728</v>
       </c>
       <c r="L380" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>47185531.149219319</v>
       </c>
     </row>
@@ -14438,15 +14727,15 @@
         <v>46625000</v>
       </c>
       <c r="J381">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>3.73E-2</v>
       </c>
       <c r="K381">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>3.8013442198216174E-2</v>
       </c>
       <c r="L381" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>47516802.74777022</v>
       </c>
     </row>
@@ -14479,15 +14768,15 @@
         <v>42249999.999999993</v>
       </c>
       <c r="J382">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>3.3799999999999997E-2</v>
       </c>
       <c r="K382">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>3.4384426861830811E-2</v>
       </c>
       <c r="L382" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>42980533.577288508</v>
       </c>
     </row>
@@ -14520,15 +14809,15 @@
         <v>54500000</v>
       </c>
       <c r="J383">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>4.36E-2</v>
       </c>
       <c r="K383">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>4.4579043397967359E-2</v>
       </c>
       <c r="L383" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>55723804.247459196</v>
       </c>
     </row>
@@ -14558,19 +14847,19 @@
         <v>90.6</v>
       </c>
       <c r="I385" s="3">
-        <f t="shared" ref="I385:I386" si="77">H385/E385*1000000</f>
+        <f t="shared" ref="I385:I386" si="83">H385/E385*1000000</f>
         <v>9059999.9999999981</v>
       </c>
       <c r="J385">
-        <f t="shared" ref="J385:J396" si="78">H385/100</f>
+        <f t="shared" ref="J385:J396" si="84">H385/100</f>
         <v>0.90599999999999992</v>
       </c>
       <c r="K385">
-        <f t="shared" ref="K385:K396" si="79">-LOG(1-J385,EXP(1))</f>
+        <f t="shared" ref="K385:K396" si="85">-LOG(1-J385,EXP(1))</f>
         <v>2.3644604967121321</v>
       </c>
       <c r="L385" s="3">
-        <f t="shared" ref="L385:L386" si="80">100000*K385*1000/E385</f>
+        <f t="shared" ref="L385:L386" si="86">100000*K385*1000/E385</f>
         <v>23644604.967121322</v>
       </c>
     </row>
@@ -14600,19 +14889,19 @@
         <v>87</v>
       </c>
       <c r="I386" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>8700000</v>
       </c>
       <c r="J386">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>0.87</v>
       </c>
       <c r="K386">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2.0402208285265546</v>
       </c>
       <c r="L386" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>20402208.285265546</v>
       </c>
     </row>
@@ -14642,11 +14931,11 @@
         <v>0.4</v>
       </c>
       <c r="J387">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K387">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>4.0080213975388218E-3</v>
       </c>
     </row>
@@ -14676,11 +14965,11 @@
         <v>0.35</v>
       </c>
       <c r="J388">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>3.4999999999999996E-3</v>
       </c>
       <c r="K388">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>3.5061393292875899E-3</v>
       </c>
     </row>
@@ -14710,11 +14999,11 @@
         <v>0.35</v>
       </c>
       <c r="J389">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>3.4999999999999996E-3</v>
       </c>
       <c r="K389">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>3.5061393292875899E-3</v>
       </c>
     </row>
@@ -14744,11 +15033,11 @@
         <v>0.31</v>
       </c>
       <c r="J390">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="K390">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>3.1048149534787565E-3</v>
       </c>
     </row>
@@ -14778,11 +15067,11 @@
         <v>0.24</v>
       </c>
       <c r="J391">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="K391">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2.4028846163103149E-3</v>
       </c>
     </row>
@@ -14812,11 +15101,11 @@
         <v>0.27</v>
       </c>
       <c r="J392">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="K392">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2.7036515743148232E-3</v>
       </c>
     </row>
@@ -14846,11 +15135,11 @@
         <v>0.16</v>
       </c>
       <c r="J393">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="K393">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>1.6012813669738792E-3</v>
       </c>
     </row>
@@ -14880,11 +15169,11 @@
         <v>0.22</v>
       </c>
       <c r="J394">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="K394">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2.2024235552000394E-3</v>
       </c>
     </row>
@@ -14914,11 +15203,11 @@
         <v>0.41</v>
       </c>
       <c r="J395">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="K395">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>4.1084280445431911E-3</v>
       </c>
     </row>
@@ -14948,11 +15237,11 @@
         <v>0.26</v>
       </c>
       <c r="J396">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="K396">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2.6033858701149278E-3</v>
       </c>
     </row>
@@ -15010,15 +15299,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE21FEA87413AD40BCB012EEE24C6775" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1cf272cb95fc1d90847a0a3c4f5d2f48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7813de17-7e77-489f-b57a-dad50cffad29" xmlns:ns3="39328f48-f671-46e6-aad7-c5b5d3849e74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da42844ea0f3177fd61a2edbf86f3566" ns2:_="" ns3:_="">
     <xsd:import namespace="7813de17-7e77-489f-b57a-dad50cffad29"/>
@@ -15267,7 +15547,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="39328f48-f671-46e6-aad7-c5b5d3849e74" xsi:nil="true"/>
@@ -15278,14 +15558,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8505EC3B-6B22-4BA8-9A95-B865E5301EF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF07FB3E-1506-4DEE-9CBE-8ADC5CE49AAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF07FB3E-1506-4DEE-9CBE-8ADC5CE49AAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EB022A-D31C-44ED-9111-D5C693C32558}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EB022A-D31C-44ED-9111-D5C693C32558}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8505EC3B-6B22-4BA8-9A95-B865E5301EF6}"/>
 </file>